--- a/00.프로젝트 관리/프로젝트 계획서_250117.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250117.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Desktop\양현석\FED-RV-YHS\9998.팀프로젝트\00.프로젝트 관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Desktop\양현석\FED-TEAM-COSMOS\00.프로젝트 관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="121">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1137,6 +1137,11 @@
 2. 스크롤 액션 수업내용 토대로 적용
 3. 각 행성에 대한 정보 정리해서 제이슨 파일로 만들기(어떤 형식으로 만들지 잘 생각해야할 듯)
 4. 갤러리 서브메뉴 미디어 쿼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문
+1. 페이지가 넘어갈 때 bgm이 끊기지 않고 이어지게 하는 방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1935,6 +1940,57 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1971,52 +2027,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2027,18 +2044,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3119,12 +3124,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -3151,60 +3156,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="71">
         <v>45670</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="70"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="60"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -3279,14 +3284,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="71"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="61"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -3372,7 +3377,7 @@
       <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="70" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="22">
@@ -3417,7 +3422,7 @@
       <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="51"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
         <v>26</v>
@@ -3458,7 +3463,7 @@
       <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="51"/>
+      <c r="G9" s="68"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3499,7 +3504,7 @@
       <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="51"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3540,7 +3545,7 @@
       <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="51"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3581,7 +3586,7 @@
       <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="51"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3622,7 +3627,7 @@
       <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="51"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="22">
         <f t="shared" ref="H13:H38" si="4">IF(F13="","",F13+1-E13)</f>
         <v>26</v>
@@ -3663,7 +3668,7 @@
       <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="51"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3702,7 +3707,7 @@
       <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="51"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3741,7 +3746,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="67" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="22">
@@ -3784,7 +3789,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="51"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3825,7 +3830,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="51"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H28" si="5">IF(F18="","",F18+1-E18)</f>
         <v>5</v>
@@ -3864,7 +3869,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="51"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3903,7 +3908,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="51"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3942,7 +3947,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="51"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3981,7 +3986,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="51"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4020,7 +4025,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="51"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4061,7 +4066,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="51"/>
+      <c r="G24" s="68"/>
       <c r="H24" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4102,7 +4107,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="51"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="22">
         <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
         <v>5</v>
@@ -4143,7 +4148,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="51"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4184,7 +4189,7 @@
       <c r="F27" s="11">
         <v>45674</v>
       </c>
-      <c r="G27" s="51"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4225,7 +4230,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="51"/>
+      <c r="G28" s="68"/>
       <c r="H28" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4264,7 +4269,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="51"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4305,7 +4310,7 @@
       <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="G30" s="51"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4346,7 +4351,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="51"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4387,7 +4392,7 @@
       <c r="F32" s="11">
         <v>45680</v>
       </c>
-      <c r="G32" s="51"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4428,7 +4433,7 @@
       <c r="F33" s="11">
         <v>45684</v>
       </c>
-      <c r="G33" s="51"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4469,7 +4474,7 @@
       <c r="F34" s="11">
         <v>45684</v>
       </c>
-      <c r="G34" s="52"/>
+      <c r="G34" s="69"/>
       <c r="H34" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4656,18 +4661,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G16:G34"/>
+    <mergeCell ref="G7:G15"/>
+    <mergeCell ref="J4:AA4"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G16:G34"/>
-    <mergeCell ref="G7:G15"/>
-    <mergeCell ref="J4:AA4"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA38">
@@ -5029,9 +5034,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+      <selection pane="topRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5051,16 +5056,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -5083,126 +5088,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="81"/>
-      <c r="C4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="78" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="82"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="83"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="84"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5300,7 +5305,7 @@
       <c r="I8" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="84" t="s">
+      <c r="J8" s="50" t="s">
         <v>115</v>
       </c>
       <c r="K8" s="24"/>
@@ -5372,123 +5377,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="81"/>
-      <c r="C12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="78" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="83"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="83"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="84"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5581,7 +5586,9 @@
       <c r="J16" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K16" s="24"/>
+      <c r="K16" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
@@ -5600,123 +5607,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="81"/>
-      <c r="C18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="78" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="83"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="83"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="80"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="84"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5863,123 +5870,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="81"/>
-      <c r="C25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="78" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="82"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="79"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="83"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="83"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="80"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="84"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -6090,6 +6097,83 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -6106,83 +6190,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.프로젝트 관리/프로젝트 계획서_250117.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250117.xlsx
@@ -1133,15 +1133,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 적용해주신 타이핑 애니메이션 다른 섹션에도 적용시키기 
+    <t xml:space="preserve">1. 적용해주신 타이핑 애니메이션 다른 섹션에도 적용시키기 
 2. 스크롤 액션 수업내용 토대로 적용
 3. 각 행성에 대한 정보 정리해서 제이슨 파일로 만들기(어떤 형식으로 만들지 잘 생각해야할 듯)
-4. 갤러리 서브메뉴 미디어 쿼리</t>
+4. 갤러리 서브메뉴 미디어 쿼리
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>질문
-1. 페이지가 넘어갈 때 bgm이 끊기지 않고 이어지게 하는 방법</t>
+1. 페이지가 넘어갈 때 bgm이 끊기지 않고 이어지게 하는 방법
+2. Vue JS를 해당 프로젝트에  어떻게 적용하면 좋을지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1943,6 +1945,51 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1973,15 +2020,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1991,40 +2029,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2034,15 +2045,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3124,12 +3126,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -3156,60 +3158,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="55">
         <v>45670</v>
       </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="77"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -3284,14 +3286,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="57"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="78"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -3377,7 +3379,7 @@
       <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="54" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="22">
@@ -3422,7 +3424,7 @@
       <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="68"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
         <v>26</v>
@@ -3463,7 +3465,7 @@
       <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3504,7 +3506,7 @@
       <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="68"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3545,7 +3547,7 @@
       <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3586,7 +3588,7 @@
       <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="68"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3627,7 +3629,7 @@
       <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="22">
         <f t="shared" ref="H13:H38" si="4">IF(F13="","",F13+1-E13)</f>
         <v>26</v>
@@ -3668,7 +3670,7 @@
       <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="68"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3707,7 +3709,7 @@
       <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="68"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3746,7 +3748,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="51" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="22">
@@ -3789,7 +3791,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="68"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3830,7 +3832,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="68"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H28" si="5">IF(F18="","",F18+1-E18)</f>
         <v>5</v>
@@ -3869,7 +3871,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="52"/>
       <c r="H19" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3908,7 +3910,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="68"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3947,7 +3949,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="52"/>
       <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3986,7 +3988,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="68"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4025,7 +4027,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="68"/>
+      <c r="G23" s="52"/>
       <c r="H23" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4066,7 +4068,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="68"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4107,7 +4109,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="68"/>
+      <c r="G25" s="52"/>
       <c r="H25" s="22">
         <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
         <v>5</v>
@@ -4148,7 +4150,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="68"/>
+      <c r="G26" s="52"/>
       <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4189,7 +4191,7 @@
       <c r="F27" s="11">
         <v>45674</v>
       </c>
-      <c r="G27" s="68"/>
+      <c r="G27" s="52"/>
       <c r="H27" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4230,7 +4232,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="68"/>
+      <c r="G28" s="52"/>
       <c r="H28" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4269,7 +4271,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="68"/>
+      <c r="G29" s="52"/>
       <c r="H29" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4310,7 +4312,7 @@
       <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="G30" s="68"/>
+      <c r="G30" s="52"/>
       <c r="H30" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4351,7 +4353,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="68"/>
+      <c r="G31" s="52"/>
       <c r="H31" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4392,7 +4394,7 @@
       <c r="F32" s="11">
         <v>45680</v>
       </c>
-      <c r="G32" s="68"/>
+      <c r="G32" s="52"/>
       <c r="H32" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4433,7 +4435,7 @@
       <c r="F33" s="11">
         <v>45684</v>
       </c>
-      <c r="G33" s="68"/>
+      <c r="G33" s="52"/>
       <c r="H33" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4474,7 +4476,7 @@
       <c r="F34" s="11">
         <v>45684</v>
       </c>
-      <c r="G34" s="69"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4661,18 +4663,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="G16:G34"/>
     <mergeCell ref="G7:G15"/>
     <mergeCell ref="J4:AA4"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA38">
@@ -5056,16 +5058,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -5088,126 +5090,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="79"/>
-      <c r="C4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="82" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="80"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="84"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5377,123 +5379,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="79"/>
-      <c r="C12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="82" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="80"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="81"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="81"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5607,123 +5609,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="79"/>
-      <c r="C18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="82" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="80"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="83"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="80"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="81"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="84"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="81"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5870,123 +5872,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="79"/>
-      <c r="C25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="82" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="80"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="83"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="80"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="81"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="81"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -6097,83 +6099,6 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -6190,6 +6115,83 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.프로젝트 관리/프로젝트 계획서_250117.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250117.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="124">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1133,18 +1133,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 적용해주신 타이핑 애니메이션 다른 섹션에도 적용시키기 
-2. 스크롤 액션 수업내용 토대로 적용
-3. 각 행성에 대한 정보 정리해서 제이슨 파일로 만들기(어떤 형식으로 만들지 잘 생각해야할 듯)
-4. 갤러리 서브메뉴 미디어 쿼리
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>질문
 1. 페이지가 넘어갈 때 bgm이 끊기지 않고 이어지게 하는 방법
-2. Vue JS를 해당 프로젝트에  어떻게 적용하면 좋을지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+2. Vue JS를 해당 프로젝트에  어떻게 적용하면 좋을지?
+3. 각 섹션 타이틀 타이핑 애니메이션 후 타이핑바 제거하는 방법?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 타이핑 애니메이션 예시 적용 중 
+-&gt; 한 페이지 모두 적용 후에 나머지 페이지는 데이터를 뿌려서 적용시킬 수 있도록 해보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1. 적용해주신 타이핑 애니메이션 다른 섹션에도 적용시키기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> ( Mercury만 먼저 적용)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2. 스크롤 액션 수업내용 토대로 적용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3. 각 행성에 대한 정보 정리해서 제이슨 파일로 만들기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">(어떤 형식으로 만들지 잘 생각해야할 듯)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+4. 갤러리 서브메뉴 미디어 쿼리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 타이핑 애니메이션 mercury 적용시킨 후 위치값에 따라 실행될 수 있도록 적용+ 위치값에 따라 행성 이동하기 적용
+2. 각 행성정보 Json파일로 만들기
+3. 갤러리 서브메뉴 미디어 쿼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mercury 에 잘 적용되어야 다른 페이지에 적용시킬 수 있음. 따라서 다음 주까지는 Mercury 기능 구현에 집중하는 것으로.</t>
   </si>
 </sst>
 </file>
@@ -5036,9 +5143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K17" sqref="K17"/>
+      <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5051,8 +5158,8 @@
     <col min="7" max="7" width="56.125" style="12" customWidth="1"/>
     <col min="8" max="8" width="53.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="53.375" customWidth="1"/>
-    <col min="10" max="10" width="48.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="23" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="48.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="23" width="27.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.125" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5310,7 +5417,9 @@
       <c r="J8" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="24"/>
+      <c r="K8" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
@@ -5589,7 +5698,7 @@
         <v>117</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
@@ -5822,9 +5931,11 @@
         <v>116</v>
       </c>
       <c r="J22" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="K22" s="44"/>
+        <v>121</v>
+      </c>
+      <c r="K22" s="44" t="s">
+        <v>122</v>
+      </c>
       <c r="L22" s="44"/>
       <c r="M22" s="44"/>
       <c r="N22" s="44"/>
@@ -6079,7 +6190,9 @@
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
+      <c r="K29" s="27" t="s">
+        <v>123</v>
+      </c>
       <c r="L29" s="27"/>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>

--- a/00.프로젝트 관리/프로젝트 계획서_250117.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250117.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -1133,13 +1133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>질문
-1. 페이지가 넘어갈 때 bgm이 끊기지 않고 이어지게 하는 방법
-2. Vue JS를 해당 프로젝트에  어떻게 적용하면 좋을지?
-3. 각 섹션 타이틀 타이핑 애니메이션 후 타이핑바 제거하는 방법?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 타이핑 애니메이션 예시 적용 중 
 -&gt; 한 페이지 모두 적용 후에 나머지 페이지는 데이터를 뿌려서 적용시킬 수 있도록 해보자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1245,13 +1238,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 타이핑 애니메이션 mercury 적용시킨 후 위치값에 따라 실행될 수 있도록 적용+ 위치값에 따라 행성 이동하기 적용
-2. 각 행성정보 Json파일로 만들기
+    <t>Mercury 에 잘 적용되어야 다른 페이지에 적용시킬 수 있음. 따라서 다음 주까지는 Mercury 기능 구현에 집중하는 것으로.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 타이핑 애니메이션 mercury 적용시킨 후 위치값에 따라 실행될 수 있도록 적용+ 위치값에 따라 행성 이동하기 적용
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2. 각 행성정보 Json파일로 만들기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
 3. 갤러리 서브메뉴 미디어 쿼리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mercury 에 잘 적용되어야 다른 페이지에 적용시킬 수 있음. 따라서 다음 주까지는 Mercury 기능 구현에 집중하는 것으로.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문
+1. 페이지가 넘어갈 때 bgm이 끊기지 않고 이어지게 하는 방법
+2. Vue JS를 해당 프로젝트에  어떻게 적용하면 좋을지?
+3. 각 섹션 타이틀 타이핑 애니메이션 후 타이핑바 제거하는 방법?
+4. 갤러리 서브메뉴 미디어쿼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2052,6 +2078,54 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2088,52 +2162,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2143,15 +2178,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3210,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3233,12 +3259,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -3254,7 +3280,7 @@
       </c>
       <c r="F3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="21" t="s">
@@ -3265,60 +3291,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="71">
         <v>45670</v>
       </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="71"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="61"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -3393,14 +3419,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="72"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="62"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -3486,7 +3512,7 @@
       <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="70" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="22">
@@ -3531,7 +3557,7 @@
       <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="52"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
         <v>26</v>
@@ -3572,7 +3598,7 @@
       <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="52"/>
+      <c r="G9" s="68"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3613,7 +3639,7 @@
       <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="52"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3654,7 +3680,7 @@
       <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="52"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3695,7 +3721,7 @@
       <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="52"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3736,7 +3762,7 @@
       <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="52"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="22">
         <f t="shared" ref="H13:H38" si="4">IF(F13="","",F13+1-E13)</f>
         <v>26</v>
@@ -3777,7 +3803,7 @@
       <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="52"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3816,7 +3842,7 @@
       <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3855,7 +3881,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="67" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="22">
@@ -3863,7 +3889,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="18">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3898,7 +3924,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="52"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3939,13 +3965,13 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H28" si="5">IF(F18="","",F18+1-E18)</f>
         <v>5</v>
       </c>
       <c r="I18" s="18">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3978,7 +4004,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4017,7 +4043,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4056,7 +4082,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4095,7 +4121,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4134,7 +4160,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="52"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4175,7 +4201,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="68"/>
       <c r="H24" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4216,7 +4242,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="22">
         <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
         <v>5</v>
@@ -4257,7 +4283,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="52"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4298,7 +4324,7 @@
       <c r="F27" s="11">
         <v>45674</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4339,7 +4365,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="68"/>
       <c r="H28" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4378,7 +4404,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="52"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4419,7 +4445,7 @@
       <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="G30" s="52"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4460,7 +4486,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="52"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4501,7 +4527,7 @@
       <c r="F32" s="11">
         <v>45680</v>
       </c>
-      <c r="G32" s="52"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4542,7 +4568,7 @@
       <c r="F33" s="11">
         <v>45684</v>
       </c>
-      <c r="G33" s="52"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4583,7 +4609,7 @@
       <c r="F34" s="11">
         <v>45684</v>
       </c>
-      <c r="G34" s="53"/>
+      <c r="G34" s="69"/>
       <c r="H34" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4770,18 +4796,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G16:G34"/>
+    <mergeCell ref="G7:G15"/>
+    <mergeCell ref="J4:AA4"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G16:G34"/>
-    <mergeCell ref="G7:G15"/>
-    <mergeCell ref="J4:AA4"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA38">
@@ -5143,9 +5169,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5165,16 +5191,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -5184,7 +5210,7 @@
       </c>
       <c r="G3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>3</v>
@@ -5197,126 +5223,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="82"/>
-      <c r="C4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="79" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="83"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="84"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5418,7 +5444,7 @@
         <v>115</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
@@ -5488,123 +5514,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="82"/>
-      <c r="C12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="79" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="83"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="83"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="84"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="84"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5698,7 +5724,7 @@
         <v>117</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
@@ -5718,123 +5744,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
-      <c r="C18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="79" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="83"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="83"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="84"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="81"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="84"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5931,7 +5957,7 @@
         <v>116</v>
       </c>
       <c r="J22" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K22" s="44" t="s">
         <v>122</v>
@@ -5983,123 +6009,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="82"/>
-      <c r="C25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="79" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="83"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="61"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="83"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="84"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="84"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -6191,7 +6217,7 @@
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
       <c r="K29" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="27"/>
@@ -6212,6 +6238,83 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -6228,83 +6331,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.프로젝트 관리/프로젝트 계획서_250117.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250117.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -1276,7 +1276,8 @@
 1. 페이지가 넘어갈 때 bgm이 끊기지 않고 이어지게 하는 방법
 2. Vue JS를 해당 프로젝트에  어떻게 적용하면 좋을지?
 3. 각 섹션 타이틀 타이핑 애니메이션 후 타이핑바 제거하는 방법?
-4. 갤러리 서브메뉴 미디어쿼리</t>
+4. 갤러리 서브메뉴 미디어쿼리
+5. 타이핑 애니메이션 타이틀에 타이핑 바 보이지 않게 하는 방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2078,6 +2079,51 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2108,15 +2154,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2126,40 +2163,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2169,15 +2179,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3236,7 +3237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -3259,12 +3260,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -3291,60 +3292,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="55">
         <v>45670</v>
       </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="77"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -3419,14 +3420,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="57"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="78"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -3512,7 +3513,7 @@
       <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="54" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="22">
@@ -3557,7 +3558,7 @@
       <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="68"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
         <v>26</v>
@@ -3598,7 +3599,7 @@
       <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3639,7 +3640,7 @@
       <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="68"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3680,7 +3681,7 @@
       <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3721,7 +3722,7 @@
       <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="68"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3762,7 +3763,7 @@
       <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="22">
         <f t="shared" ref="H13:H38" si="4">IF(F13="","",F13+1-E13)</f>
         <v>26</v>
@@ -3803,7 +3804,7 @@
       <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="68"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3842,7 +3843,7 @@
       <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="68"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3881,7 +3882,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="51" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="22">
@@ -3924,7 +3925,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="68"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3965,7 +3966,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="68"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H28" si="5">IF(F18="","",F18+1-E18)</f>
         <v>5</v>
@@ -4004,7 +4005,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="52"/>
       <c r="H19" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4043,7 +4044,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="68"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4082,7 +4083,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="52"/>
       <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4121,7 +4122,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="68"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4160,7 +4161,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="68"/>
+      <c r="G23" s="52"/>
       <c r="H23" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4201,7 +4202,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="68"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4242,7 +4243,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="68"/>
+      <c r="G25" s="52"/>
       <c r="H25" s="22">
         <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
         <v>5</v>
@@ -4283,7 +4284,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="68"/>
+      <c r="G26" s="52"/>
       <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4324,7 +4325,7 @@
       <c r="F27" s="11">
         <v>45674</v>
       </c>
-      <c r="G27" s="68"/>
+      <c r="G27" s="52"/>
       <c r="H27" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4365,7 +4366,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="68"/>
+      <c r="G28" s="52"/>
       <c r="H28" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4404,7 +4405,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="68"/>
+      <c r="G29" s="52"/>
       <c r="H29" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4445,7 +4446,7 @@
       <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="G30" s="68"/>
+      <c r="G30" s="52"/>
       <c r="H30" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4486,7 +4487,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="68"/>
+      <c r="G31" s="52"/>
       <c r="H31" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4527,7 +4528,7 @@
       <c r="F32" s="11">
         <v>45680</v>
       </c>
-      <c r="G32" s="68"/>
+      <c r="G32" s="52"/>
       <c r="H32" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4568,7 +4569,7 @@
       <c r="F33" s="11">
         <v>45684</v>
       </c>
-      <c r="G33" s="68"/>
+      <c r="G33" s="52"/>
       <c r="H33" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4609,7 +4610,7 @@
       <c r="F34" s="11">
         <v>45684</v>
       </c>
-      <c r="G34" s="69"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4796,18 +4797,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="G16:G34"/>
     <mergeCell ref="G7:G15"/>
     <mergeCell ref="J4:AA4"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA38">
@@ -5169,9 +5170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L22" sqref="L22"/>
+      <selection pane="topRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5191,16 +5192,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -5223,126 +5224,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="79"/>
-      <c r="C4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="82" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="80"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="84"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5514,123 +5515,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="79"/>
-      <c r="C12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="82" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="80"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="81"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="81"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5744,123 +5745,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="79"/>
-      <c r="C18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="82" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="80"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="83"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="80"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="81"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="84"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="81"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -6009,123 +6010,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="79"/>
-      <c r="C25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="82" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="80"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="83"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="80"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="81"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="81"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -6238,83 +6239,6 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -6331,6 +6255,83 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.프로젝트 관리/프로젝트 계획서_250117.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250117.xlsx
@@ -1273,11 +1273,11 @@
   </si>
   <si>
     <t>질문
-1. 페이지가 넘어갈 때 bgm이 끊기지 않고 이어지게 하는 방법
-2. Vue JS를 해당 프로젝트에  어떻게 적용하면 좋을지?
+1. 타이핑 스크롤 애니메이션 실행 순서
+2. json 파일 만들었는데 그 다음에는 무엇을 해야할지 잘 모르겠음. (이번에 배운 스토어와 라우터를 사용하고 싶음.)
 3. 각 섹션 타이틀 타이핑 애니메이션 후 타이핑바 제거하는 방법?
 4. 갤러리 서브메뉴 미디어쿼리
-5. 타이핑 애니메이션 타이틀에 타이핑 바 보이지 않게 하는 방법</t>
+5. 페이지가 넘어갈 때 bgm이 끊기지 않고 이어지게 하는 방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2079,6 +2079,54 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2115,52 +2163,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2170,15 +2179,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3260,12 +3260,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -3292,60 +3292,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="71">
         <v>45670</v>
       </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="71"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="61"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -3420,14 +3420,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="72"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="62"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -3513,7 +3513,7 @@
       <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="70" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="22">
@@ -3558,7 +3558,7 @@
       <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="52"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
         <v>26</v>
@@ -3599,7 +3599,7 @@
       <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="52"/>
+      <c r="G9" s="68"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3640,7 +3640,7 @@
       <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="52"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3681,7 +3681,7 @@
       <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="52"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3722,7 +3722,7 @@
       <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="52"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3763,7 +3763,7 @@
       <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="52"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="22">
         <f t="shared" ref="H13:H38" si="4">IF(F13="","",F13+1-E13)</f>
         <v>26</v>
@@ -3804,7 +3804,7 @@
       <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="52"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3843,7 +3843,7 @@
       <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3882,7 +3882,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="67" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="22">
@@ -3925,7 +3925,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="52"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3966,7 +3966,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H28" si="5">IF(F18="","",F18+1-E18)</f>
         <v>5</v>
@@ -4005,7 +4005,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4044,7 +4044,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4083,7 +4083,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4122,7 +4122,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4161,7 +4161,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="52"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4202,7 +4202,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="68"/>
       <c r="H24" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4243,7 +4243,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="22">
         <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
         <v>5</v>
@@ -4284,7 +4284,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="52"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4325,7 +4325,7 @@
       <c r="F27" s="11">
         <v>45674</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4366,7 +4366,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="68"/>
       <c r="H28" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4405,7 +4405,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="52"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4446,7 +4446,7 @@
       <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="G30" s="52"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4487,7 +4487,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="52"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4528,7 +4528,7 @@
       <c r="F32" s="11">
         <v>45680</v>
       </c>
-      <c r="G32" s="52"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4569,7 +4569,7 @@
       <c r="F33" s="11">
         <v>45684</v>
       </c>
-      <c r="G33" s="52"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4610,7 +4610,7 @@
       <c r="F34" s="11">
         <v>45684</v>
       </c>
-      <c r="G34" s="53"/>
+      <c r="G34" s="69"/>
       <c r="H34" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4797,18 +4797,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G16:G34"/>
+    <mergeCell ref="G7:G15"/>
+    <mergeCell ref="J4:AA4"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G16:G34"/>
-    <mergeCell ref="G7:G15"/>
-    <mergeCell ref="J4:AA4"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA38">
@@ -5172,7 +5172,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K22" sqref="K22"/>
+      <selection pane="topRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5192,16 +5192,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -5224,126 +5224,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="82"/>
-      <c r="C4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="79" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="83"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="84"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5515,123 +5515,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="82"/>
-      <c r="C12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="79" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="83"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="83"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="84"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="84"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5745,123 +5745,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
-      <c r="C18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="79" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="83"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="83"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="84"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="81"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="84"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -6010,123 +6010,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="82"/>
-      <c r="C25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="79" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="83"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="61"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="83"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="84"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="84"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -6239,6 +6239,83 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -6255,83 +6332,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.프로젝트 관리/프로젝트 계획서_250117.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250117.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="125">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1241,8 +1241,40 @@
     <t>Mercury 에 잘 적용되어야 다른 페이지에 적용시킬 수 있음. 따라서 다음 주까지는 Mercury 기능 구현에 집중하는 것으로.</t>
   </si>
   <si>
+    <t>질문
+1. 타이핑 스크롤 애니메이션 실행 순서
+2. json 파일 만들었는데 그 다음에는 무엇을 해야할지 잘 모르겠음. (이번에 배운 스토어와 라우터를 사용하고 싶음.)
+3. 각 섹션 타이틀 타이핑 애니메이션 후 타이핑바 제거하는 방법?
+4. 갤러리 서브메뉴 미디어쿼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 타이핑 플러그인 적용 후 위치에 따라 실행될 수 있도록 적용 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">1. 타이핑 애니메이션 mercury 적용시킨 후 위치값에 따라 실행될 수 있도록 적용+ 위치값에 따라 행성 이동하기 적용
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1. 타이핑 애니메이션 mercury 적용시킨 후 위치값에 따라 실행될 수 있도록 적용+ 위치값에 따라 행성 이동하기 적용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1269,15 +1301,6 @@
       <t xml:space="preserve">
 3. 갤러리 서브메뉴 미디어 쿼리</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문
-1. 타이핑 스크롤 애니메이션 실행 순서
-2. json 파일 만들었는데 그 다음에는 무엇을 해야할지 잘 모르겠음. (이번에 배운 스토어와 라우터를 사용하고 싶음.)
-3. 각 섹션 타이틀 타이핑 애니메이션 후 타이핑바 제거하는 방법?
-4. 갤러리 서브메뉴 미디어쿼리
-5. 페이지가 넘어갈 때 bgm이 끊기지 않고 이어지게 하는 방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2079,6 +2102,51 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2109,15 +2177,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2127,40 +2186,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2170,15 +2202,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3260,12 +3283,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -3292,60 +3315,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="55">
         <v>45670</v>
       </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="77"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -3420,14 +3443,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="57"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="78"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -3513,7 +3536,7 @@
       <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="54" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="22">
@@ -3558,7 +3581,7 @@
       <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="68"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
         <v>26</v>
@@ -3599,7 +3622,7 @@
       <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3640,7 +3663,7 @@
       <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="68"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3681,7 +3704,7 @@
       <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3722,7 +3745,7 @@
       <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="68"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3763,7 +3786,7 @@
       <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="22">
         <f t="shared" ref="H13:H38" si="4">IF(F13="","",F13+1-E13)</f>
         <v>26</v>
@@ -3804,7 +3827,7 @@
       <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="68"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3843,7 +3866,7 @@
       <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="68"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3882,7 +3905,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="51" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="22">
@@ -3925,7 +3948,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="68"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3966,7 +3989,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="68"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H28" si="5">IF(F18="","",F18+1-E18)</f>
         <v>5</v>
@@ -4005,7 +4028,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="52"/>
       <c r="H19" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4044,7 +4067,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="68"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4083,7 +4106,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="52"/>
       <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4122,7 +4145,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="68"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4161,7 +4184,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="68"/>
+      <c r="G23" s="52"/>
       <c r="H23" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4202,7 +4225,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="68"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4243,7 +4266,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="68"/>
+      <c r="G25" s="52"/>
       <c r="H25" s="22">
         <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
         <v>5</v>
@@ -4284,7 +4307,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="68"/>
+      <c r="G26" s="52"/>
       <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4325,7 +4348,7 @@
       <c r="F27" s="11">
         <v>45674</v>
       </c>
-      <c r="G27" s="68"/>
+      <c r="G27" s="52"/>
       <c r="H27" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4366,7 +4389,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="68"/>
+      <c r="G28" s="52"/>
       <c r="H28" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4405,7 +4428,7 @@
       <c r="F29" s="11">
         <v>45678</v>
       </c>
-      <c r="G29" s="68"/>
+      <c r="G29" s="52"/>
       <c r="H29" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4446,7 +4469,7 @@
       <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="G30" s="68"/>
+      <c r="G30" s="52"/>
       <c r="H30" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4487,7 +4510,7 @@
       <c r="F31" s="11">
         <v>45680</v>
       </c>
-      <c r="G31" s="68"/>
+      <c r="G31" s="52"/>
       <c r="H31" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4528,7 +4551,7 @@
       <c r="F32" s="11">
         <v>45680</v>
       </c>
-      <c r="G32" s="68"/>
+      <c r="G32" s="52"/>
       <c r="H32" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4569,7 +4592,7 @@
       <c r="F33" s="11">
         <v>45684</v>
       </c>
-      <c r="G33" s="68"/>
+      <c r="G33" s="52"/>
       <c r="H33" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4610,7 +4633,7 @@
       <c r="F34" s="11">
         <v>45684</v>
       </c>
-      <c r="G34" s="69"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4797,18 +4820,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="G16:G34"/>
     <mergeCell ref="G7:G15"/>
     <mergeCell ref="J4:AA4"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA38">
@@ -5170,9 +5193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L16" sqref="L16"/>
+      <selection pane="topRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5192,16 +5215,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -5224,126 +5247,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="79"/>
-      <c r="C4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="82" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="80"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="84"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5447,7 +5470,9 @@
       <c r="K8" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="24"/>
+      <c r="L8" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
@@ -5515,123 +5540,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="79"/>
-      <c r="C12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="82" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="80"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="81"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="81"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5725,7 +5750,7 @@
         <v>117</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
@@ -5745,123 +5770,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="79"/>
-      <c r="C18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="82" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="80"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="83"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="80"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="81"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="84"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="81"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5961,7 +5986,7 @@
         <v>120</v>
       </c>
       <c r="K22" s="44" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L22" s="44"/>
       <c r="M22" s="44"/>
@@ -6010,123 +6035,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="79"/>
-      <c r="C25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="82" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="80"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="83"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="80"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="81"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="81"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -6239,83 +6264,6 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -6332,6 +6280,83 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
